--- a/learnEXCEL/style.xlsx
+++ b/learnEXCEL/style.xlsx
@@ -467,7 +467,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="n">
-        <v>43090.47265661522</v>
+        <v>43090.56623035403</v>
       </c>
     </row>
   </sheetData>
